--- a/SampleProject/Common/Table/String_Common_Ko.xlsx
+++ b/SampleProject/Common/Table/String_Common_Ko.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="646">
   <si>
     <t>FieldName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,10 +2064,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2349,10 +2345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데미지, 공격속도, 투사체 수, 투사체 속도, 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage, Attack Speed, Penetration, Projectile Speed</t>
   </si>
   <si>
@@ -2375,9 +2367,6 @@
     <t>Damage, Attack Speed, Life Steal</t>
   </si>
   <si>
-    <t>Damage, Attack Speed, Number of Projectiles, Projectile Speed, Duration</t>
-  </si>
-  <si>
     <t>데미지, 공격속도, 투사체 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2414,6 +2403,93 @@
   </si>
   <si>
     <t>PRJNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지, 공격속도, 투사체 속도, 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage, Attack Speed, Projectile Speed, Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 고철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRTMETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DANGER : TOO MANY EMEMIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험: 적이 너무 많습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고가 준비되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad is not ready yet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchased!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 완료!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 사용했습니다</t>
+  </si>
+  <si>
+    <t>회원가입 성공!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Already Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign Up Success!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been Logged out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드가 부족합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Level Reached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 LV 도달!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 성공!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade Success!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2421,7 +2497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2839,7 +2915,7 @@
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.25" bestFit="1" customWidth="1"/>
@@ -2848,37 +2924,37 @@
     <col min="6" max="6" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>220314</v>
       </c>
@@ -2905,7 +2981,7 @@
       <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
@@ -2919,7 +2995,7 @@
     <col min="10" max="10" width="62.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +3021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -2963,7 +3039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -2990,13 +3066,13 @@
   <dimension ref="A1:AE311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B187" sqref="B187"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="34.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="122.75" style="3" bestFit="1" customWidth="1"/>
@@ -3009,7 +3085,7 @@
     <col min="32" max="16384" width="7.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3017,7 +3093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -3034,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>10001</v>
       </c>
@@ -3054,7 +3130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>10002</v>
       </c>
@@ -3074,7 +3150,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>10003</v>
       </c>
@@ -3094,7 +3170,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>10004</v>
       </c>
@@ -3114,7 +3190,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>10005</v>
       </c>
@@ -3134,12 +3210,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>11001</v>
       </c>
@@ -3159,7 +3235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>11002</v>
       </c>
@@ -3179,7 +3255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
         <v>11003</v>
       </c>
@@ -3199,7 +3275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
         <v>11004</v>
       </c>
@@ -3219,7 +3295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="3">
         <v>11005</v>
       </c>
@@ -3239,7 +3315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
         <v>11006</v>
       </c>
@@ -3259,7 +3335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
         <v>11007</v>
       </c>
@@ -3279,7 +3355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>11008</v>
       </c>
@@ -3299,7 +3375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>11009</v>
       </c>
@@ -3319,7 +3395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>11010</v>
       </c>
@@ -3339,7 +3415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>11011</v>
       </c>
@@ -3359,7 +3435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>11012</v>
       </c>
@@ -3379,7 +3455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>11013</v>
       </c>
@@ -3399,20 +3475,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>11201</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>84</v>
@@ -3424,15 +3500,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>11202</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>85</v>
@@ -3444,15 +3520,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3">
         <v>11203</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>86</v>
@@ -3464,15 +3540,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3">
         <v>11204</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>87</v>
@@ -3484,15 +3560,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3">
         <v>11205</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C29" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>88</v>
@@ -3504,15 +3580,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3">
         <v>11206</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>89</v>
@@ -3524,15 +3600,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3">
         <v>11207</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>90</v>
@@ -3544,15 +3620,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3">
         <v>11208</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C32" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>91</v>
@@ -3564,7 +3640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="3">
         <v>11209</v>
       </c>
@@ -3584,7 +3660,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="3">
         <v>11210</v>
       </c>
@@ -3604,7 +3680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="3">
         <v>11211</v>
       </c>
@@ -3624,7 +3700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="3">
         <v>11212</v>
       </c>
@@ -3644,7 +3720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="3">
         <v>11213</v>
       </c>
@@ -3664,7 +3740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>11214</v>
       </c>
@@ -3684,7 +3760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <v>11215</v>
       </c>
@@ -3704,7 +3780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="3">
         <v>11216</v>
       </c>
@@ -3724,7 +3800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="3">
         <v>11217</v>
       </c>
@@ -3744,7 +3820,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="3">
         <v>11218</v>
       </c>
@@ -3764,7 +3840,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="3">
         <v>11219</v>
       </c>
@@ -3784,7 +3860,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="3">
         <v>11220</v>
       </c>
@@ -3804,7 +3880,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="3">
         <v>11221</v>
       </c>
@@ -3824,7 +3900,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="3">
         <v>11222</v>
       </c>
@@ -3844,7 +3920,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="3">
         <v>11223</v>
       </c>
@@ -3864,7 +3940,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="3">
         <v>11224</v>
       </c>
@@ -3884,7 +3960,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="3">
         <v>11225</v>
       </c>
@@ -3904,7 +3980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>11226</v>
       </c>
@@ -3924,7 +4000,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="3">
         <v>11227</v>
       </c>
@@ -3944,7 +4020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>11228</v>
       </c>
@@ -3964,7 +4040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <v>11229</v>
       </c>
@@ -3984,7 +4060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>11230</v>
       </c>
@@ -4004,7 +4080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="3">
         <v>11231</v>
       </c>
@@ -4024,7 +4100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="3">
         <v>11232</v>
       </c>
@@ -4044,7 +4120,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="3">
         <v>11233</v>
       </c>
@@ -4064,7 +4140,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="3">
         <v>11234</v>
       </c>
@@ -4084,7 +4160,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="3">
         <v>11235</v>
       </c>
@@ -4104,7 +4180,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="3">
         <v>11236</v>
       </c>
@@ -4124,7 +4200,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="3">
         <v>11237</v>
       </c>
@@ -4144,7 +4220,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="3">
         <v>11238</v>
       </c>
@@ -4164,7 +4240,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="3">
         <v>11239</v>
       </c>
@@ -4184,7 +4260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="3">
         <v>11240</v>
       </c>
@@ -4204,7 +4280,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="3">
         <v>11241</v>
       </c>
@@ -4224,7 +4300,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="3">
         <v>11242</v>
       </c>
@@ -4244,7 +4320,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="3">
         <v>11243</v>
       </c>
@@ -4264,7 +4340,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="3">
         <v>11244</v>
       </c>
@@ -4284,7 +4360,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="3">
         <v>11245</v>
       </c>
@@ -4304,7 +4380,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="3">
         <v>11246</v>
       </c>
@@ -4324,7 +4400,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="3">
         <v>11247</v>
       </c>
@@ -4344,7 +4420,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="3">
         <v>11248</v>
       </c>
@@ -4364,7 +4440,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="3">
         <v>11249</v>
       </c>
@@ -4384,7 +4460,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="3">
         <v>11250</v>
       </c>
@@ -4404,7 +4480,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="3">
         <v>11251</v>
       </c>
@@ -4424,7 +4500,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="3">
         <v>11252</v>
       </c>
@@ -4444,7 +4520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="3">
         <v>11253</v>
       </c>
@@ -4464,7 +4540,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="3">
         <v>11254</v>
       </c>
@@ -4484,7 +4560,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="3">
         <v>11255</v>
       </c>
@@ -4504,12 +4580,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="3">
         <v>11401</v>
       </c>
@@ -4529,7 +4605,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="3">
         <v>11402</v>
       </c>
@@ -4549,7 +4625,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
         <v>11403</v>
       </c>
@@ -4569,7 +4645,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="3">
         <v>11404</v>
       </c>
@@ -4589,7 +4665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
         <v>11405</v>
       </c>
@@ -4609,7 +4685,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="3">
         <v>11406</v>
       </c>
@@ -4629,7 +4705,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
         <v>11407</v>
       </c>
@@ -4649,7 +4725,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="3">
         <v>11408</v>
       </c>
@@ -4669,7 +4745,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="3">
         <v>11409</v>
       </c>
@@ -4689,7 +4765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="3">
         <v>11410</v>
       </c>
@@ -4709,7 +4785,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="3">
         <v>11411</v>
       </c>
@@ -4729,7 +4805,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="3">
         <v>11412</v>
       </c>
@@ -4749,7 +4825,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="3">
         <v>11413</v>
       </c>
@@ -4769,7 +4845,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="3">
         <v>11414</v>
       </c>
@@ -4789,7 +4865,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="3">
         <v>11415</v>
       </c>
@@ -4809,7 +4885,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="3">
         <v>11416</v>
       </c>
@@ -4829,7 +4905,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="3">
         <v>11417</v>
       </c>
@@ -4849,7 +4925,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="49.5">
       <c r="A99" s="3">
         <v>11418</v>
       </c>
@@ -4869,7 +4945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="3">
         <v>11419</v>
       </c>
@@ -4889,7 +4965,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="3">
         <v>11420</v>
       </c>
@@ -4909,7 +4985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="3">
         <v>11421</v>
       </c>
@@ -4929,7 +5005,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="3">
         <v>11422</v>
       </c>
@@ -4949,7 +5025,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="3">
         <v>11423</v>
       </c>
@@ -4969,7 +5045,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="3">
         <v>11424</v>
       </c>
@@ -4989,7 +5065,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="3">
         <v>11425</v>
       </c>
@@ -5009,7 +5085,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="3">
         <v>11426</v>
       </c>
@@ -5029,7 +5105,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="3">
         <v>11427</v>
       </c>
@@ -5049,7 +5125,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="3">
         <v>11428</v>
       </c>
@@ -5069,7 +5145,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="3">
         <v>11429</v>
       </c>
@@ -5089,15 +5165,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="3">
         <v>11430</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>215</v>
@@ -5109,15 +5185,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="3">
         <v>11431</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>216</v>
@@ -5129,15 +5205,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="3">
         <v>11432</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>217</v>
@@ -5149,15 +5225,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="3">
         <v>11433</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>218</v>
@@ -5169,15 +5245,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="3">
         <v>11434</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>219</v>
@@ -5189,15 +5265,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="3">
         <v>11435</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>220</v>
@@ -5209,7 +5285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="3">
         <v>11436</v>
       </c>
@@ -5226,12 +5302,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="3">
         <v>20001</v>
       </c>
@@ -5251,7 +5327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="3">
         <v>20011</v>
       </c>
@@ -5271,7 +5347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="3">
         <v>20012</v>
       </c>
@@ -5291,7 +5367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="3">
         <v>20013</v>
       </c>
@@ -5311,7 +5387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="3">
         <v>20014</v>
       </c>
@@ -5331,7 +5407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="3">
         <v>20015</v>
       </c>
@@ -5351,7 +5427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="3">
         <v>20016</v>
       </c>
@@ -5371,7 +5447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="3">
         <v>20017</v>
       </c>
@@ -5391,7 +5467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="3">
         <v>20018</v>
       </c>
@@ -5411,7 +5487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="3">
         <v>20019</v>
       </c>
@@ -5431,7 +5507,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="3">
         <v>20020</v>
       </c>
@@ -5451,7 +5527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="3">
         <v>20021</v>
       </c>
@@ -5471,7 +5547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="3">
         <v>20022</v>
       </c>
@@ -5491,7 +5567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="3">
         <v>20023</v>
       </c>
@@ -5511,7 +5587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="3">
         <v>20024</v>
       </c>
@@ -5531,7 +5607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="3">
         <v>20025</v>
       </c>
@@ -5551,15 +5627,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="3">
         <v>20101</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C137" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>56</v>
@@ -5571,15 +5647,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="3">
         <v>20111</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C138" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>233</v>
@@ -5591,15 +5667,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="3">
         <v>20112</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C139" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>236</v>
@@ -5611,15 +5687,15 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="3">
         <v>20113</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C140" t="s">
         <v>619</v>
-      </c>
-      <c r="C140" t="s">
-        <v>622</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>237</v>
@@ -5631,15 +5707,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="3">
         <v>20114</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C141" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>234</v>
@@ -5651,7 +5727,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="3">
         <v>20115</v>
       </c>
@@ -5671,7 +5747,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="3">
         <v>20116</v>
       </c>
@@ -5691,7 +5767,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="3">
         <v>20117</v>
       </c>
@@ -5711,7 +5787,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="3">
         <v>20118</v>
       </c>
@@ -5731,7 +5807,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="3">
         <v>20119</v>
       </c>
@@ -5751,7 +5827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="3">
         <v>20120</v>
       </c>
@@ -5771,7 +5847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="3">
         <v>20121</v>
       </c>
@@ -5791,7 +5867,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="3">
         <v>20122</v>
       </c>
@@ -5811,7 +5887,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="3">
         <v>20123</v>
       </c>
@@ -5831,7 +5907,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="3">
         <v>20124</v>
       </c>
@@ -5851,7 +5927,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="3">
         <v>20125</v>
       </c>
@@ -5871,7 +5947,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="3">
         <v>20201</v>
       </c>
@@ -5891,7 +5967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="3">
         <v>20211</v>
       </c>
@@ -5911,7 +5987,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="3">
         <v>20212</v>
       </c>
@@ -5931,7 +6007,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="3">
         <v>20213</v>
       </c>
@@ -5951,7 +6027,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="3">
         <v>20214</v>
       </c>
@@ -5971,7 +6047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="3">
         <v>20215</v>
       </c>
@@ -5991,7 +6067,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="3">
         <v>20216</v>
       </c>
@@ -6011,7 +6087,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="3">
         <v>20217</v>
       </c>
@@ -6031,7 +6107,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="3">
         <v>20218</v>
       </c>
@@ -6051,7 +6127,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="3">
         <v>20219</v>
       </c>
@@ -6071,7 +6147,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="3">
         <v>20220</v>
       </c>
@@ -6091,7 +6167,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="3">
         <v>20221</v>
       </c>
@@ -6111,7 +6187,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="3">
         <v>20222</v>
       </c>
@@ -6131,7 +6207,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="3">
         <v>20223</v>
       </c>
@@ -6151,7 +6227,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="3">
         <v>20224</v>
       </c>
@@ -6171,7 +6247,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="3">
         <v>20225</v>
       </c>
@@ -6191,7 +6267,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="3">
         <v>20226</v>
       </c>
@@ -6211,7 +6287,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="3">
         <v>20227</v>
       </c>
@@ -6231,7 +6307,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="3">
         <v>20228</v>
       </c>
@@ -6251,12 +6327,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="3">
         <v>40001</v>
       </c>
@@ -6276,12 +6352,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:31">
       <c r="A177" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:31">
       <c r="A178" s="3">
         <v>41001</v>
       </c>
@@ -6301,7 +6377,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31">
       <c r="A179" s="3">
         <v>41002</v>
       </c>
@@ -6321,15 +6397,15 @@
         <v>305</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31">
       <c r="A180" s="3">
         <v>41003</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>301</v>
@@ -6341,7 +6417,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31">
       <c r="A181" s="3">
         <v>41004</v>
       </c>
@@ -6361,7 +6437,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31">
       <c r="A182" s="3">
         <v>41005</v>
       </c>
@@ -6383,7 +6459,7 @@
       <c r="AD182" s="3"/>
       <c r="AE182" s="3"/>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31">
       <c r="A183" s="3">
         <v>41006</v>
       </c>
@@ -6405,7 +6481,7 @@
       <c r="AD183" s="3"/>
       <c r="AE183" s="3"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31">
       <c r="A184" s="3">
         <v>41007</v>
       </c>
@@ -6427,15 +6503,15 @@
       <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31">
       <c r="A185" s="3">
         <v>41008</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>320</v>
@@ -6449,12 +6525,12 @@
       <c r="AD185" s="3"/>
       <c r="AE185" s="3"/>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31">
       <c r="A186" s="3">
         <v>41009</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>540</v>
+        <v>323</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>323</v>
@@ -6471,7 +6547,7 @@
       <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31">
       <c r="A187" s="3">
         <v>41010</v>
       </c>
@@ -6493,7 +6569,7 @@
       <c r="AD187" s="3"/>
       <c r="AE187" s="3"/>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31">
       <c r="A188" s="3">
         <v>41011</v>
       </c>
@@ -6515,7 +6591,7 @@
       <c r="AD188" s="3"/>
       <c r="AE188" s="3"/>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31">
       <c r="A189" s="3">
         <v>41012</v>
       </c>
@@ -6537,7 +6613,7 @@
       <c r="AD189" s="3"/>
       <c r="AE189" s="3"/>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31">
       <c r="A190" s="3">
         <v>41013</v>
       </c>
@@ -6559,7 +6635,7 @@
       <c r="AD190" s="3"/>
       <c r="AE190" s="3"/>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31">
       <c r="A191" s="3">
         <v>41014</v>
       </c>
@@ -6581,15 +6657,15 @@
       <c r="AD191" s="3"/>
       <c r="AE191" s="3"/>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31">
       <c r="A192" s="3">
         <v>41015</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>326</v>
@@ -6603,12 +6679,12 @@
       <c r="AD192" s="3"/>
       <c r="AE192" s="3"/>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31">
       <c r="A193" s="3">
         <v>41016</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>538</v>
@@ -6625,15 +6701,15 @@
       <c r="AD193" s="3"/>
       <c r="AE193" s="3"/>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31">
       <c r="A194" s="3">
         <v>41017</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>328</v>
@@ -6647,15 +6723,15 @@
       <c r="AD194" s="3"/>
       <c r="AE194" s="3"/>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31">
       <c r="A195" s="3">
         <v>41018</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>321</v>
+        <v>626</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>321</v>
+        <v>627</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>321</v>
@@ -6669,15 +6745,15 @@
       <c r="AD195" s="3"/>
       <c r="AE195" s="3"/>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31">
       <c r="A196" s="3">
         <v>41019</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>287</v>
+        <v>644</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>287</v>
+        <v>645</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>287</v>
@@ -6691,15 +6767,15 @@
       <c r="AD196" s="3"/>
       <c r="AE196" s="3"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31">
       <c r="A197" s="3">
         <v>41020</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>288</v>
+        <v>643</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>288</v>
+        <v>642</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>288</v>
@@ -6713,15 +6789,15 @@
       <c r="AD197" s="3"/>
       <c r="AE197" s="3"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31">
       <c r="A198" s="3">
         <v>41021</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>298</v>
+        <v>640</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>298</v>
+        <v>641</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>298</v>
@@ -6735,15 +6811,15 @@
       <c r="AD198" s="3"/>
       <c r="AE198" s="3"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31">
       <c r="A199" s="3">
         <v>41022</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>309</v>
+        <v>638</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>309</v>
+        <v>639</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>309</v>
@@ -6757,15 +6833,15 @@
       <c r="AD199" s="3"/>
       <c r="AE199" s="3"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:31">
       <c r="A200" s="3">
         <v>41023</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>327</v>
+        <v>635</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>327</v>
+        <v>637</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>327</v>
@@ -6779,15 +6855,15 @@
       <c r="AD200" s="3"/>
       <c r="AE200" s="3"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:31">
       <c r="A201" s="3">
         <v>41024</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>325</v>
+        <v>634</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>325</v>
+        <v>636</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>325</v>
@@ -6801,15 +6877,15 @@
       <c r="AD201" s="3"/>
       <c r="AE201" s="3"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:31">
       <c r="A202" s="3">
         <v>41025</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>300</v>
+        <v>633</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>300</v>
+        <v>632</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>300</v>
@@ -6823,15 +6899,15 @@
       <c r="AD202" s="3"/>
       <c r="AE202" s="3"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:31">
       <c r="A203" s="3">
         <v>41026</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>289</v>
+        <v>630</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>289</v>
+        <v>631</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>289</v>
@@ -6845,15 +6921,15 @@
       <c r="AD203" s="3"/>
       <c r="AE203" s="3"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:31">
       <c r="A204" s="3">
         <v>41027</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>286</v>
+        <v>629</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>286</v>
+        <v>628</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>286</v>
@@ -6867,7 +6943,7 @@
       <c r="AD204" s="3"/>
       <c r="AE204" s="3"/>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:31">
       <c r="A206" s="3" t="s">
         <v>333</v>
       </c>
@@ -6889,7 +6965,7 @@
       <c r="AD206" s="3"/>
       <c r="AE206" s="3"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:31">
       <c r="A207" s="3" t="s">
         <v>333</v>
       </c>
@@ -6911,7 +6987,7 @@
       <c r="AD207" s="3"/>
       <c r="AE207" s="3"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:31">
       <c r="A208" s="3" t="s">
         <v>333</v>
       </c>
@@ -6933,7 +7009,7 @@
       <c r="AD208" s="3"/>
       <c r="AE208" s="3"/>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:31">
       <c r="A209" s="3" t="s">
         <v>333</v>
       </c>
@@ -6955,7 +7031,7 @@
       <c r="AD209" s="3"/>
       <c r="AE209" s="3"/>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:31">
       <c r="A210" s="3" t="s">
         <v>333</v>
       </c>
@@ -6977,7 +7053,7 @@
       <c r="AD210" s="3"/>
       <c r="AE210" s="3"/>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:31">
       <c r="A211" s="3" t="s">
         <v>333</v>
       </c>
@@ -6999,7 +7075,7 @@
       <c r="AD211" s="3"/>
       <c r="AE211" s="3"/>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:31">
       <c r="A212" s="3" t="s">
         <v>333</v>
       </c>
@@ -7021,7 +7097,7 @@
       <c r="AD212" s="3"/>
       <c r="AE212" s="3"/>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:31">
       <c r="A213" s="3" t="s">
         <v>333</v>
       </c>
@@ -7043,7 +7119,7 @@
       <c r="AD213" s="3"/>
       <c r="AE213" s="3"/>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:31">
       <c r="A214" s="3" t="s">
         <v>333</v>
       </c>
@@ -7065,7 +7141,7 @@
       <c r="AD214" s="3"/>
       <c r="AE214" s="3"/>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:31">
       <c r="A215" s="3" t="s">
         <v>333</v>
       </c>
@@ -7087,7 +7163,7 @@
       <c r="AD215" s="3"/>
       <c r="AE215" s="3"/>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:31">
       <c r="A216" s="3" t="s">
         <v>333</v>
       </c>
@@ -7109,7 +7185,7 @@
       <c r="AD216" s="3"/>
       <c r="AE216" s="3"/>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:31">
       <c r="A217" s="3" t="s">
         <v>333</v>
       </c>
@@ -7131,7 +7207,7 @@
       <c r="AD217" s="3"/>
       <c r="AE217" s="3"/>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:31">
       <c r="A218" s="3" t="s">
         <v>333</v>
       </c>
@@ -7153,7 +7229,7 @@
       <c r="AD218" s="3"/>
       <c r="AE218" s="3"/>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:31">
       <c r="A219" s="3" t="s">
         <v>333</v>
       </c>
@@ -7175,7 +7251,7 @@
       <c r="AD219" s="3"/>
       <c r="AE219" s="3"/>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:31">
       <c r="A220" s="3" t="s">
         <v>333</v>
       </c>
@@ -7197,7 +7273,7 @@
       <c r="AD220" s="3"/>
       <c r="AE220" s="3"/>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:31">
       <c r="A221" s="3" t="s">
         <v>333</v>
       </c>
@@ -7219,7 +7295,7 @@
       <c r="AD221" s="3"/>
       <c r="AE221" s="3"/>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:31">
       <c r="A222" s="3" t="s">
         <v>333</v>
       </c>
@@ -7241,14 +7317,14 @@
       <c r="AD222" s="3"/>
       <c r="AE222" s="3"/>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:31">
       <c r="A224" s="3" t="s">
         <v>334</v>
       </c>
       <c r="AD224" s="3"/>
       <c r="AE224" s="3"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:31">
       <c r="A225" s="3">
         <v>42501</v>
       </c>
@@ -7270,7 +7346,7 @@
       <c r="AD225" s="3"/>
       <c r="AE225" s="3"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:31">
       <c r="A226" s="3">
         <v>42502</v>
       </c>
@@ -7292,7 +7368,7 @@
       <c r="AD226" s="3"/>
       <c r="AE226" s="3"/>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:31">
       <c r="A227" s="3">
         <v>42503</v>
       </c>
@@ -7314,14 +7390,14 @@
       <c r="AD227" s="3"/>
       <c r="AE227" s="3"/>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:31">
       <c r="A229" s="3" t="s">
         <v>382</v>
       </c>
       <c r="AD229" s="3"/>
       <c r="AE229" s="3"/>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:31">
       <c r="A230" s="3">
         <v>42801</v>
       </c>
@@ -7343,7 +7419,7 @@
       <c r="AD230" s="3"/>
       <c r="AE230" s="3"/>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:31">
       <c r="A231" s="3">
         <v>42802</v>
       </c>
@@ -7365,7 +7441,7 @@
       <c r="AD231" s="3"/>
       <c r="AE231" s="3"/>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:31">
       <c r="A232" s="3">
         <v>42803</v>
       </c>
@@ -7387,7 +7463,7 @@
       <c r="AD232" s="3"/>
       <c r="AE232" s="3"/>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:31">
       <c r="A233" s="3">
         <v>42804</v>
       </c>
@@ -7409,7 +7485,7 @@
       <c r="AD233" s="3"/>
       <c r="AE233" s="3"/>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:31">
       <c r="A234" s="3">
         <v>42805</v>
       </c>
@@ -7431,7 +7507,7 @@
       <c r="AD234" s="3"/>
       <c r="AE234" s="3"/>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:31">
       <c r="A235" s="3">
         <v>42806</v>
       </c>
@@ -7453,7 +7529,7 @@
       <c r="AD235" s="3"/>
       <c r="AE235" s="3"/>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:31">
       <c r="A236" s="3">
         <v>42807</v>
       </c>
@@ -7475,7 +7551,7 @@
       <c r="AD236" s="3"/>
       <c r="AE236" s="3"/>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:31">
       <c r="A237" s="3">
         <v>42808</v>
       </c>
@@ -7497,14 +7573,14 @@
       <c r="AD237" s="3"/>
       <c r="AE237" s="3"/>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:31">
       <c r="A239" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AD239" s="3"/>
       <c r="AE239" s="3"/>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:31">
       <c r="A240" s="3">
         <v>43001</v>
       </c>
@@ -7526,7 +7602,7 @@
       <c r="AD240" s="3"/>
       <c r="AE240" s="3"/>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:31">
       <c r="A241" s="3">
         <v>43002</v>
       </c>
@@ -7548,7 +7624,7 @@
       <c r="AD241" s="3"/>
       <c r="AE241" s="3"/>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:31">
       <c r="A242" s="3">
         <v>43003</v>
       </c>
@@ -7570,7 +7646,7 @@
       <c r="AD242" s="3"/>
       <c r="AE242" s="3"/>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:31">
       <c r="A243" s="3">
         <v>43004</v>
       </c>
@@ -7590,7 +7666,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:31">
       <c r="A244" s="3">
         <v>43005</v>
       </c>
@@ -7610,7 +7686,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:31">
       <c r="A245" s="3">
         <v>43006</v>
       </c>
@@ -7630,7 +7706,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:31">
       <c r="A246" s="3">
         <v>43007</v>
       </c>
@@ -7650,7 +7726,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:31">
       <c r="A248" s="3">
         <v>43008</v>
       </c>
@@ -7670,7 +7746,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:31">
       <c r="A249" s="3">
         <v>43009</v>
       </c>
@@ -7681,7 +7757,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:31">
       <c r="A251" s="3">
         <v>43010</v>
       </c>
@@ -7698,7 +7774,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:31">
       <c r="A252" s="3">
         <v>43011</v>
       </c>
@@ -7715,12 +7791,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:31">
       <c r="F253" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:31">
       <c r="A254" s="3">
         <v>43012</v>
       </c>
@@ -7740,7 +7816,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:31">
       <c r="A255" s="3">
         <v>43013</v>
       </c>
@@ -7760,7 +7836,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:31">
       <c r="A256" s="3">
         <v>43014</v>
       </c>
@@ -7780,7 +7856,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6">
       <c r="A257" s="3">
         <v>43015</v>
       </c>
@@ -7800,7 +7876,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6">
       <c r="A259" s="3">
         <v>43016</v>
       </c>
@@ -7817,7 +7893,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6">
       <c r="A260" s="3">
         <v>43017</v>
       </c>
@@ -7837,7 +7913,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6">
       <c r="A261" s="3">
         <v>43018</v>
       </c>
@@ -7857,7 +7933,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6">
       <c r="A262" s="3">
         <v>43019</v>
       </c>
@@ -7877,7 +7953,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6">
       <c r="A264" s="3">
         <v>43020</v>
       </c>
@@ -7894,7 +7970,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6">
       <c r="A266" s="3">
         <v>43021</v>
       </c>
@@ -7911,7 +7987,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6">
       <c r="A267" s="3">
         <v>43022</v>
       </c>
@@ -7928,7 +8004,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6">
       <c r="A268" s="3">
         <v>43023</v>
       </c>
@@ -7945,7 +8021,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6">
       <c r="A269" s="3">
         <v>43024</v>
       </c>
@@ -7962,7 +8038,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6">
       <c r="A271" s="3">
         <v>43025</v>
       </c>
@@ -7979,7 +8055,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6">
       <c r="A272" s="3">
         <v>43026</v>
       </c>
@@ -7996,7 +8072,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5">
       <c r="A273" s="3">
         <v>43027</v>
       </c>
@@ -8013,7 +8089,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5">
       <c r="A275" s="3">
         <v>43028</v>
       </c>
@@ -8030,7 +8106,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5">
       <c r="A276" s="3">
         <v>43029</v>
       </c>
@@ -8047,7 +8123,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5">
       <c r="A278" s="3">
         <v>43030</v>
       </c>
@@ -8064,7 +8140,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5">
       <c r="A279" s="3">
         <v>43031</v>
       </c>
@@ -8081,7 +8157,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5">
       <c r="A280" s="3">
         <v>43032</v>
       </c>
@@ -8098,7 +8174,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5">
       <c r="A281" s="3">
         <v>43033</v>
       </c>
@@ -8115,7 +8191,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5">
       <c r="A283" s="3">
         <v>43034</v>
       </c>
@@ -8126,7 +8202,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5">
       <c r="A284" s="3">
         <v>43035</v>
       </c>
@@ -8137,7 +8213,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5">
       <c r="A285" s="3">
         <v>43036</v>
       </c>
@@ -8148,245 +8224,245 @@
         <v>526</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5">
       <c r="A287" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="3">
         <v>43100</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="3">
         <v>43101</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="3">
         <v>43102</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="3">
         <v>43103</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" s="3">
         <v>43104</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="3">
         <v>43105</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="3">
         <v>43106</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" s="3">
         <v>43107</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" s="3">
         <v>43108</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" s="3">
         <v>43109</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="3">
         <v>43110</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="3">
         <v>43201</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" s="3">
         <v>43202</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" s="3">
         <v>43203</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="33">
       <c r="A305" s="3">
         <v>43204</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="33">
       <c r="A306" s="3">
         <v>43205</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="33">
       <c r="A307" s="3">
         <v>43206</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="33">
       <c r="A308" s="3">
         <v>43207</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="33">
       <c r="A309" s="3">
         <v>43208</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="33">
       <c r="A310" s="3">
         <v>43209</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="33">
       <c r="A311" s="3">
         <v>43210</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -8401,12 +8477,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000D35F0660EE6674DABAC5443D9C951FD" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="6185788dbf46f4095245a0ae9322b0c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1128b5e-e246-4c58-9678-c7dd1c578c1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b7584c7b06a0d4298f51441718c0a53" ns2:_="">
     <xsd:import namespace="b1128b5e-e246-4c58-9678-c7dd1c578c1b"/>
@@ -8538,16 +8623,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3458417-8464-4217-A4DD-2E0C4C47AEFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37D5071-2006-4585-9841-9F2106DE0002}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8563,7 +8647,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B13BCB-8437-471C-AB59-30D7CD264CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8579,12 +8663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3458417-8464-4217-A4DD-2E0C4C47AEFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>